--- a/Auto/Material Aulico/Diagrama de Gantt del proyecto A.C.R.I.Co.xlsx
+++ b/Auto/Material Aulico/Diagrama de Gantt del proyecto A.C.R.I.Co.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F3A7DD-490B-4D90-A9F5-894CB34FE2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="13365" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seguimiento de proyecto" sheetId="4" r:id="rId1"/>
@@ -21,10 +22,21 @@
     <definedName name="TablaFechaDeInicio">Hitos[Fecha de inicio]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Seguimiento de proyecto'!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -127,9 +139,6 @@
     <t>&lt;-- Se representarán hasta 5 hitos a la vez.</t>
   </si>
   <si>
-    <t>precentacion de proyecto y divicion de tareas</t>
-  </si>
-  <si>
     <t>Debate, selección de problemática y su posible solución</t>
   </si>
   <si>
@@ -145,9 +154,6 @@
     <t>Incorporación del sensor al chasis</t>
   </si>
   <si>
-    <t>Desarrollo de la app de contro</t>
-  </si>
-  <si>
     <t>Incorporación de la fuente de alimentación</t>
   </si>
   <si>
@@ -158,12 +164,18 @@
   </si>
   <si>
     <t>Control de proyecto, presentación final e informe</t>
+  </si>
+  <si>
+    <t>Desarrollo de la app de control</t>
+  </si>
+  <si>
+    <t>Presentacion de proyecto y división de tareas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
@@ -825,11 +837,11 @@
     <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="43" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="47" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="14" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="14" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="19" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="21" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="20" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="4"/>
+    <cellStyle name="Date" xfId="4" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="Encabezado 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="25" builtinId="29" customBuiltin="1"/>
@@ -1081,7 +1093,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Gantt Chart table style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Chart table style" pivot="0" count="3">
+    <tableStyle name="Gantt Chart table style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
@@ -1099,7 +1111,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1190,7 +1202,7 @@
                   <c:v>Debate, selección de problemática y su posible solución</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>precentacion de proyecto y divicion de tareas</c:v>
+                  <c:v>Presentacion de proyecto y división de tareas</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Compra de materiales</c:v>
@@ -1228,7 +1240,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5066-4237-8C26-8D976BA022B1}"/>
             </c:ext>
@@ -1264,13 +1276,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{474DA210-70F4-4F08-8876-AAB5130FF3AE}" type="CELLRANGE">
+                    <a:fld id="{C77E71CD-5CF6-486A-B4E9-E4D50FBD7182}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1287,22 +1298,52 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A3C5-4C94-9219-88813D09657A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA907F70-A09A-448A-889E-CC9BB709B8D1}" type="CELLRANGE">
+                    <a:r>
+                      <a:rPr lang="es-AR"/>
+                      <a:t>Presentación de proyecto y división de tareas</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A3C5-4C94-9219-88813D09657A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{590FEFE0-AB4B-4E45-8B26-B70FDBE18CAB}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1319,22 +1360,23 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A3C5-4C94-9219-88813D09657A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout/>
+              <c:idx val="3"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36191DE7-1DEF-441B-8ABF-061A4C2C05CA}" type="CELLRANGE">
+                    <a:fld id="{585DC6AC-2F7E-4F73-AF3D-494A5B3F899A}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1351,22 +1393,23 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A3C5-4C94-9219-88813D09657A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
+              <c:idx val="4"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2182F1C-82D6-44A7-BC43-D91EA5559BCD}" type="CELLRANGE">
+                    <a:fld id="{FB7AC573-CF6A-42D5-8E56-F2FA6C3CA5ED}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1383,42 +1426,12 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A81544E9-BD72-40C0-BD25-776FA32EBD8E}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A3C5-4C94-9219-88813D09657A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1465,9 +1478,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1482,7 +1494,7 @@
                   <c:v>Debate, selección de problemática y su posible solución</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>precentacion de proyecto y divicion de tareas</c:v>
+                  <c:v>Presentacion de proyecto y división de tareas</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Compra de materiales</c:v>
@@ -1520,10 +1532,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5066-4237-8C26-8D976BA022B1}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
                 <c15:f>'Datos de gráf. dinám. (ocultos)'!$B$6:$B$10</c15:f>
@@ -1533,7 +1542,7 @@
                     <c:v>Debate, selección de problemática y su posible solución</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>precentacion de proyecto y divicion de tareas</c:v>
+                    <c:v>Presentacion de proyecto y división de tareas</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>Compra de materiales</c:v>
@@ -1546,6 +1555,9 @@
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5066-4237-8C26-8D976BA022B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1672,14 +1684,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2272,7 +2284,7 @@
         <xdr:cNvPr id="2" name="Diagrama de Gantt" descr="Gantt Chart with a date timeline">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2327,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2346,23 +2358,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Hitos" displayName="Hitos" ref="B4:G20">
-  <autoFilter ref="B4:G20"/>
-  <sortState ref="B6:G21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Hitos" displayName="Hitos" ref="B4:G20">
+  <autoFilter ref="B4:G20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:G21">
     <sortCondition ref="C6:C21"/>
     <sortCondition ref="D6:D21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="12" name="Posición" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="2" name="Fecha de inicio" totalsRowDxfId="10" dataCellStyle="Date"/>
-    <tableColumn id="3" name="Fecha de finalización" totalsRowDxfId="9" dataCellStyle="Date"/>
-    <tableColumn id="10" name="Hito o actividad">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Posición" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Fecha de inicio" totalsRowDxfId="10" dataCellStyle="Date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fecha de finalización" totalsRowDxfId="9" dataCellStyle="Date"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Hito o actividad">
       <calculatedColumnFormula>"Actividad"&amp;" "&amp;ROW($A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Inicio el día" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Inicio el día" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>IFERROR(IF(OR(LEN(Hitos[[#This Row],[Fecha de inicio]])=0,LEN(Hitos[[#This Row],[Fecha de finalización]])=0),"",INT(C5)-INT($C$5)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Duración de la tarea" totalsRowFunction="count" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Duración de la tarea" totalsRowFunction="count" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>IFERROR(IF(Hitos[[#This Row],[Inicio el día]]=0,DATEDIF(Hitos[[#This Row],[Fecha de inicio]],Hitos[[#This Row],[Fecha de finalización]],"d")+1,IF(LEN(Hitos[[#This Row],[Inicio el día]])=0,"",DATEDIF(Hitos[[#This Row],[Fecha de inicio]],Hitos[[#This Row],[Fecha de finalización]],"d")+1)),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2376,24 +2388,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DatosDinámicos" displayName="DatosDinámicos" ref="B5:E10" totalsRowShown="0" tableBorderDxfId="4">
-  <autoFilter ref="B5:E10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="DatosDinámicos" displayName="DatosDinámicos" ref="B5:E10" totalsRowShown="0" tableBorderDxfId="4">
+  <autoFilter ref="B5:E10" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="hito" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="hito" dataDxfId="3">
       <calculatedColumnFormula>IFERROR(IF(LEN(OFFSET('Seguimiento de proyecto'!$E5,$B$3,0,1,1))=0,"",INDEX(Hitos[],'Seguimiento de proyecto'!$B5+$B$3,4)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="fecha" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="fecha" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(IF(LEN(OFFSET('Seguimiento de proyecto'!$C5,$B$3,0,1,1))=0,End_Date,INDEX(Hitos[],'Seguimiento de proyecto'!$B5+$B$3,2)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Inicio el día" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Inicio el día" dataDxfId="1">
       <calculatedColumnFormula>IFERROR(IF(LEN(OFFSET('Seguimiento de proyecto'!$F5,$B$3,0,1,1))=0,"",INDEX(Hitos[],'Seguimiento de proyecto'!$B5+$B$3,5)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="duración" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="duración" dataDxfId="0">
       <calculatedColumnFormula>IFERROR(IF(LEN(OFFSET('Seguimiento de proyecto'!$G5,$B$3,0,1,1))=0,"",INDEX(Hitos[],'Seguimiento de proyecto'!$B5+$B$3,6)),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2668,14 +2680,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2684,7 +2696,7 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="2.5703125" customWidth="1"/>
@@ -2698,7 +2710,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2759,7 +2771,7 @@
         <v>44809</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="23">
         <f>IFERROR(IF(OR(LEN(Hitos[[#This Row],[Fecha de inicio]])=0,LEN(Hitos[[#This Row],[Fecha de finalización]])=0),"",INT(C5)-INT($C$5)),"")</f>
@@ -2781,7 +2793,7 @@
         <v>44810</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F6" s="23">
         <f>IFERROR(IF(OR(LEN(Hitos[[#This Row],[Fecha de inicio]])=0,LEN(Hitos[[#This Row],[Fecha de finalización]])=0),"",INT(C6)-INT($C$5)),"")</f>
@@ -2803,7 +2815,7 @@
         <v>44813</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="23">
         <f>IFERROR(IF(OR(LEN(Hitos[[#This Row],[Fecha de inicio]])=0,LEN(Hitos[[#This Row],[Fecha de finalización]])=0),"",INT(C7)-INT($C$5)),"")</f>
@@ -2825,7 +2837,7 @@
         <v>44815</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="23">
         <f>IFERROR(IF(OR(LEN(Hitos[[#This Row],[Fecha de inicio]])=0,LEN(Hitos[[#This Row],[Fecha de finalización]])=0),"",INT(C8)-INT($C$5)),"")</f>
@@ -2847,7 +2859,7 @@
         <v>44816</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="23">
         <f>IFERROR(IF(OR(LEN(Hitos[[#This Row],[Fecha de inicio]])=0,LEN(Hitos[[#This Row],[Fecha de finalización]])=0),"",INT(C9)-INT($C$5)),"")</f>
@@ -2869,7 +2881,7 @@
         <v>44817</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="23">
         <f>IFERROR(IF(OR(LEN(Hitos[[#This Row],[Fecha de inicio]])=0,LEN(Hitos[[#This Row],[Fecha de finalización]])=0),"",INT(C10)-INT($C$5)),"")</f>
@@ -2891,7 +2903,7 @@
         <v>44821</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F11" s="23">
         <f>IFERROR(IF(OR(LEN(Hitos[[#This Row],[Fecha de inicio]])=0,LEN(Hitos[[#This Row],[Fecha de finalización]])=0),"",INT(C11)-INT($C$5)),"")</f>
@@ -2913,7 +2925,7 @@
         <v>44822</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="23">
         <f>IFERROR(IF(OR(LEN(Hitos[[#This Row],[Fecha de inicio]])=0,LEN(Hitos[[#This Row],[Fecha de finalización]])=0),"",INT(C12)-INT($C$5)),"")</f>
@@ -2935,7 +2947,7 @@
         <v>44824</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" s="23">
         <f>IFERROR(IF(OR(LEN(Hitos[[#This Row],[Fecha de inicio]])=0,LEN(Hitos[[#This Row],[Fecha de finalización]])=0),"",INT(C13)-INT($C$5)),"")</f>
@@ -2957,7 +2969,7 @@
         <v>44827</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="23">
         <f>IFERROR(IF(OR(LEN(Hitos[[#This Row],[Fecha de inicio]])=0,LEN(Hitos[[#This Row],[Fecha de finalización]])=0),"",INT(C14)-INT($C$5)),"")</f>
@@ -3087,13 +3099,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -3150,7 +3162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3240,7 +3252,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="str">
         <f ca="1">IFERROR(IF(LEN(OFFSET('Seguimiento de proyecto'!$E6,$B$3,0,1,1))=0,"",INDEX(Hitos[],'Seguimiento de proyecto'!$B6+$B$3,4)),"")</f>
-        <v>precentacion de proyecto y divicion de tareas</v>
+        <v>Presentacion de proyecto y división de tareas</v>
       </c>
       <c r="C7" s="7">
         <f ca="1">IFERROR(IF(LEN(OFFSET('Seguimiento de proyecto'!$C6,$B$3,0,1,1))=0,End_Date,INDEX(Hitos[],'Seguimiento de proyecto'!$B6+$B$3,2)),"")</f>
